--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3784.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3784.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.846399372867651</v>
+        <v>3.185301542282104</v>
       </c>
       <c r="B1">
-        <v>2.479719976034195</v>
+        <v>4.095221996307373</v>
       </c>
       <c r="C1">
-        <v>2.693838321544857</v>
+        <v>3.100350618362427</v>
       </c>
       <c r="D1">
-        <v>3.211914532813454</v>
+        <v>2.940971851348877</v>
       </c>
       <c r="E1">
-        <v>3.014545082841116</v>
+        <v>2.398838043212891</v>
       </c>
     </row>
   </sheetData>
